--- a/Data/ESS Availability Pattern Requests and Manager Approval_CZ_REG_UPDATED.xlsx
+++ b/Data/ESS Availability Pattern Requests and Manager Approval_CZ_REG_UPDATED.xlsx
@@ -1,44 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" filterPrivacy="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0DF607-E5A4-48CE-B695-204DFDF1DCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>EmployeePassword</t>
+  </si>
+  <si>
+    <t>ManagerID</t>
+  </si>
+  <si>
+    <t>ManagerPassword</t>
+  </si>
+  <si>
+    <t>GLAvailabilityChanges</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>RepeatEvery</t>
+  </si>
+  <si>
+    <t>DaysORWeeks</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>TestResult</t>
+  </si>
+  <si>
+    <t>WFMManagerPassword@05</t>
+  </si>
+  <si>
+    <t>PrimarkMgr123!</t>
+  </si>
+  <si>
+    <t>GL-Temporary Availability</t>
+  </si>
+  <si>
+    <t>13/10/2025</t>
+  </si>
+  <si>
+    <t>14/10/2025</t>
+  </si>
+  <si>
+    <t>Day(s)</t>
+  </si>
+  <si>
+    <t>Unavailable</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>GL-Permanent Availability Mon</t>
+  </si>
+  <si>
+    <t>15/10/2025</t>
+  </si>
+  <si>
+    <t>16/10/2025</t>
+  </si>
+  <si>
+    <t>Preferred Unavailable</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -61,17 +139,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,86 +485,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>EmployeeID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>EmployeePassword</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ManagerID</v>
-      </c>
-      <c r="D1" t="str">
-        <v>ManagerPassword</v>
-      </c>
-      <c r="E1" t="str">
-        <v>GLAvailabilityChanges</v>
-      </c>
-      <c r="F1" t="str">
-        <v>StartDate</v>
-      </c>
-      <c r="G1" t="str">
-        <v>EndDate</v>
-      </c>
-      <c r="H1" t="str">
-        <v>RepeatEvery</v>
-      </c>
-      <c r="I1" t="str">
-        <v>DaysORWeeks</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Status</v>
-      </c>
-      <c r="K1" t="str">
-        <v>StartTime</v>
-      </c>
-      <c r="L1" t="str">
-        <v>EndTime</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Approve</v>
-      </c>
-      <c r="N1" t="str">
-        <v>TestResult</v>
+    <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10652573</v>
       </c>
-      <c r="B2" t="str">
-        <v>WFMManagerPassword@05</v>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C2">
         <v>10550474</v>
       </c>
-      <c r="D2" t="str">
-        <v>PrimarkMgr123!</v>
-      </c>
-      <c r="E2" t="str">
-        <v>GL-Temporary Availability</v>
-      </c>
-      <c r="F2" t="str">
-        <v>13/10/2025</v>
-      </c>
-      <c r="G2" t="str">
-        <v>14/10/2025</v>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="str">
-        <v>Day(s)</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Unavailable</v>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -483,43 +575,43 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="N2" t="str">
-        <v/>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10652573</v>
       </c>
-      <c r="B3" t="str">
-        <v>WFMManagerPassword@05</v>
+      <c r="B3" t="s">
+        <v>14</v>
       </c>
       <c r="C3">
         <v>10550474</v>
       </c>
-      <c r="D3" t="str">
-        <v>PrimarkMgr123!</v>
-      </c>
-      <c r="E3" t="str">
-        <v>GL-Permanent Availability Mon</v>
-      </c>
-      <c r="F3" t="str">
-        <v>15/10/2025</v>
-      </c>
-      <c r="G3" t="str">
-        <v>16/10/2025</v>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" t="str">
-        <v>Day(s)</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Preferred Unavailable</v>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
       </c>
       <c r="K3">
         <v>9</v>
@@ -527,60 +619,64 @@
       <c r="L3">
         <v>12</v>
       </c>
-      <c r="M3" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="N3" t="str">
-        <v>Passed</v>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v/>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <v/>
-      </c>
-      <c r="K4" t="str">
-        <v/>
-      </c>
-      <c r="L4" t="str">
-        <v/>
-      </c>
-      <c r="M4" t="str">
-        <v/>
-      </c>
-      <c r="N4" t="str">
-        <v/>
+    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{998A0D7F-F8E7-4D8C-9718-6C46C340902E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N4"/>
+    <ignoredError sqref="A1:N1 A3:N4 C2:N2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>